--- a/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Anual.xlsx
+++ b/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Anual.xlsx
@@ -886,10 +886,10 @@
         <v>104</v>
       </c>
       <c r="D25">
-        <v>101.8</v>
+        <v>101.4</v>
       </c>
       <c r="E25">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -903,10 +903,10 @@
         <v>104.7</v>
       </c>
       <c r="D26">
-        <v>101.8</v>
+        <v>100</v>
       </c>
       <c r="E26">
-        <v>100.7</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Anual.xlsx
+++ b/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Anual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>Serie</t>
   </si>
@@ -31,79 +31,427 @@
     <t>Japón índice de todos los ítemes menos alimentos y energía</t>
   </si>
   <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
+    <t>Ene.2010</t>
+  </si>
+  <si>
+    <t>Feb.2010</t>
+  </si>
+  <si>
+    <t>Mar.2010</t>
+  </si>
+  <si>
+    <t>Abr.2010</t>
+  </si>
+  <si>
+    <t>May.2010</t>
+  </si>
+  <si>
+    <t>Jun.2010</t>
+  </si>
+  <si>
+    <t>Jul.2010</t>
+  </si>
+  <si>
+    <t>Ago.2010</t>
+  </si>
+  <si>
+    <t>Sep.2010</t>
+  </si>
+  <si>
+    <t>Oct.2010</t>
+  </si>
+  <si>
+    <t>Nov.2010</t>
+  </si>
+  <si>
+    <t>Dic.2010</t>
+  </si>
+  <si>
+    <t>Ene.2011</t>
+  </si>
+  <si>
+    <t>Feb.2011</t>
+  </si>
+  <si>
+    <t>Mar.2011</t>
+  </si>
+  <si>
+    <t>Abr.2011</t>
+  </si>
+  <si>
+    <t>May.2011</t>
+  </si>
+  <si>
+    <t>Jun.2011</t>
+  </si>
+  <si>
+    <t>Jul.2011</t>
+  </si>
+  <si>
+    <t>Ago.2011</t>
+  </si>
+  <si>
+    <t>Sep.2011</t>
+  </si>
+  <si>
+    <t>Oct.2011</t>
+  </si>
+  <si>
+    <t>Nov.2011</t>
+  </si>
+  <si>
+    <t>Dic.2011</t>
+  </si>
+  <si>
+    <t>Ene.2012</t>
+  </si>
+  <si>
+    <t>Feb.2012</t>
+  </si>
+  <si>
+    <t>Mar.2012</t>
+  </si>
+  <si>
+    <t>Abr.2012</t>
+  </si>
+  <si>
+    <t>May.2012</t>
+  </si>
+  <si>
+    <t>Jun.2012</t>
+  </si>
+  <si>
+    <t>Jul.2012</t>
+  </si>
+  <si>
+    <t>Ago.2012</t>
+  </si>
+  <si>
+    <t>Sep.2012</t>
+  </si>
+  <si>
+    <t>Oct.2012</t>
+  </si>
+  <si>
+    <t>Nov.2012</t>
+  </si>
+  <si>
+    <t>Dic.2012</t>
+  </si>
+  <si>
+    <t>Ene.2013</t>
+  </si>
+  <si>
+    <t>Feb.2013</t>
+  </si>
+  <si>
+    <t>Mar.2013</t>
+  </si>
+  <si>
+    <t>Abr.2013</t>
+  </si>
+  <si>
+    <t>May.2013</t>
+  </si>
+  <si>
+    <t>Jun.2013</t>
+  </si>
+  <si>
+    <t>Jul.2013</t>
+  </si>
+  <si>
+    <t>Ago.2013</t>
+  </si>
+  <si>
+    <t>Sep.2013</t>
+  </si>
+  <si>
+    <t>Oct.2013</t>
+  </si>
+  <si>
+    <t>Nov.2013</t>
+  </si>
+  <si>
+    <t>Dic.2013</t>
+  </si>
+  <si>
+    <t>Ene.2014</t>
+  </si>
+  <si>
+    <t>Feb.2014</t>
+  </si>
+  <si>
+    <t>Mar.2014</t>
+  </si>
+  <si>
+    <t>Abr.2014</t>
+  </si>
+  <si>
+    <t>May.2014</t>
+  </si>
+  <si>
+    <t>Jun.2014</t>
+  </si>
+  <si>
+    <t>Jul.2014</t>
+  </si>
+  <si>
+    <t>Ago.2014</t>
+  </si>
+  <si>
+    <t>Sep.2014</t>
+  </si>
+  <si>
+    <t>Oct.2014</t>
+  </si>
+  <si>
+    <t>Nov.2014</t>
+  </si>
+  <si>
+    <t>Dic.2014</t>
+  </si>
+  <si>
+    <t>Ene.2015</t>
+  </si>
+  <si>
+    <t>Feb.2015</t>
+  </si>
+  <si>
+    <t>Mar.2015</t>
+  </si>
+  <si>
+    <t>Abr.2015</t>
+  </si>
+  <si>
+    <t>May.2015</t>
+  </si>
+  <si>
+    <t>Jun.2015</t>
+  </si>
+  <si>
+    <t>Jul.2015</t>
+  </si>
+  <si>
+    <t>Ago.2015</t>
+  </si>
+  <si>
+    <t>Sep.2015</t>
+  </si>
+  <si>
+    <t>Oct.2015</t>
+  </si>
+  <si>
+    <t>Nov.2015</t>
+  </si>
+  <si>
+    <t>Dic.2015</t>
+  </si>
+  <si>
+    <t>Ene.2016</t>
+  </si>
+  <si>
+    <t>Feb.2016</t>
+  </si>
+  <si>
+    <t>Mar.2016</t>
+  </si>
+  <si>
+    <t>Abr.2016</t>
+  </si>
+  <si>
+    <t>May.2016</t>
+  </si>
+  <si>
+    <t>Jun.2016</t>
+  </si>
+  <si>
+    <t>Jul.2016</t>
+  </si>
+  <si>
+    <t>Ago.2016</t>
+  </si>
+  <si>
+    <t>Sep.2016</t>
+  </si>
+  <si>
+    <t>Oct.2016</t>
+  </si>
+  <si>
+    <t>Nov.2016</t>
+  </si>
+  <si>
+    <t>Dic.2016</t>
+  </si>
+  <si>
+    <t>Ene.2017</t>
+  </si>
+  <si>
+    <t>Feb.2017</t>
+  </si>
+  <si>
+    <t>Mar.2017</t>
+  </si>
+  <si>
+    <t>Abr.2017</t>
+  </si>
+  <si>
+    <t>May.2017</t>
+  </si>
+  <si>
+    <t>Jun.2017</t>
+  </si>
+  <si>
+    <t>Jul.2017</t>
+  </si>
+  <si>
+    <t>Ago.2017</t>
+  </si>
+  <si>
+    <t>Sep.2017</t>
+  </si>
+  <si>
+    <t>Oct.2017</t>
+  </si>
+  <si>
+    <t>Nov.2017</t>
+  </si>
+  <si>
+    <t>Dic.2017</t>
+  </si>
+  <si>
+    <t>Ene.2018</t>
+  </si>
+  <si>
+    <t>Feb.2018</t>
+  </si>
+  <si>
+    <t>Mar.2018</t>
+  </si>
+  <si>
+    <t>Abr.2018</t>
+  </si>
+  <si>
+    <t>May.2018</t>
+  </si>
+  <si>
+    <t>Jun.2018</t>
+  </si>
+  <si>
+    <t>Jul.2018</t>
+  </si>
+  <si>
+    <t>Ago.2018</t>
+  </si>
+  <si>
+    <t>Sep.2018</t>
+  </si>
+  <si>
+    <t>Oct.2018</t>
+  </si>
+  <si>
+    <t>Nov.2018</t>
+  </si>
+  <si>
+    <t>Dic.2018</t>
+  </si>
+  <si>
+    <t>Ene.2019</t>
+  </si>
+  <si>
+    <t>Feb.2019</t>
+  </si>
+  <si>
+    <t>Mar.2019</t>
+  </si>
+  <si>
+    <t>Abr.2019</t>
+  </si>
+  <si>
+    <t>May.2019</t>
+  </si>
+  <si>
+    <t>Jun.2019</t>
+  </si>
+  <si>
+    <t>Jul.2019</t>
+  </si>
+  <si>
+    <t>Ago.2019</t>
+  </si>
+  <si>
+    <t>Sep.2019</t>
+  </si>
+  <si>
+    <t>Oct.2019</t>
+  </si>
+  <si>
+    <t>Nov.2019</t>
+  </si>
+  <si>
+    <t>Dic.2019</t>
+  </si>
+  <si>
+    <t>Ene.2020</t>
+  </si>
+  <si>
+    <t>Feb.2020</t>
+  </si>
+  <si>
+    <t>Mar.2020</t>
+  </si>
+  <si>
+    <t>Abr.2020</t>
+  </si>
+  <si>
+    <t>May.2020</t>
+  </si>
+  <si>
+    <t>Jun.2020</t>
+  </si>
+  <si>
+    <t>Jul.2020</t>
+  </si>
+  <si>
+    <t>Ago.2020</t>
+  </si>
+  <si>
+    <t>Sep.2020</t>
+  </si>
+  <si>
+    <t>Oct.2020</t>
+  </si>
+  <si>
+    <t>Nov.2020</t>
+  </si>
+  <si>
+    <t>Dic.2020</t>
+  </si>
+  <si>
+    <t>Ene.2021</t>
+  </si>
+  <si>
+    <t>Feb.2021</t>
+  </si>
+  <si>
+    <t>Mar.2021</t>
+  </si>
+  <si>
+    <t>Abr.2021</t>
+  </si>
+  <si>
+    <t>May.2021</t>
+  </si>
+  <si>
+    <t>Jun.2021</t>
+  </si>
+  <si>
+    <t>Jul.2021</t>
+  </si>
+  <si>
+    <t>Ago.2021</t>
+  </si>
+  <si>
+    <t>Sep.2021</t>
   </si>
 </sst>
 </file>
@@ -461,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,16 +837,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>71.90000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C2">
-        <v>76.3</v>
+        <v>92.8</v>
       </c>
       <c r="D2">
-        <v>97.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E2">
-        <v>102.8</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -506,16 +854,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>73</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C3">
-        <v>77.40000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="D3">
-        <v>99.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E3">
-        <v>104.4</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -523,16 +871,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>73.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C4">
-        <v>78.5</v>
+        <v>94.2</v>
       </c>
       <c r="D4">
-        <v>100.1</v>
+        <v>96.8</v>
       </c>
       <c r="E4">
-        <v>105.2</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -540,16 +888,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>74.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="C5">
-        <v>79.40000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D5">
-        <v>99.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E5">
-        <v>105.1</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -557,16 +905,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>76.2</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C6">
-        <v>80.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="D6">
+        <v>96.8</v>
+      </c>
+      <c r="E6">
         <v>99.09999999999999</v>
-      </c>
-      <c r="E6">
-        <v>104.7</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -574,16 +922,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C7">
-        <v>81.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="D7">
-        <v>98.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E7">
-        <v>103.7</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -591,16 +939,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>79.7</v>
+        <v>93</v>
       </c>
       <c r="C8">
-        <v>83.5</v>
+        <v>94</v>
       </c>
       <c r="D8">
-        <v>97.5</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E8">
-        <v>102.8</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -608,16 +956,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>81.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C9">
-        <v>85</v>
+        <v>94.3</v>
       </c>
       <c r="D9">
-        <v>97.2</v>
+        <v>96.2</v>
       </c>
       <c r="E9">
-        <v>102.5</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -625,16 +973,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>83.09999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C10">
-        <v>86.5</v>
+        <v>94.7</v>
       </c>
       <c r="D10">
-        <v>97.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E10">
-        <v>101.9</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -642,16 +990,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>84.8</v>
+        <v>93.7</v>
       </c>
       <c r="C11">
-        <v>87.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>96.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="E11">
-        <v>101.5</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -659,16 +1007,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>86.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="C12">
-        <v>88.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D12">
-        <v>97.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E12">
-        <v>101.1</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -676,16 +1024,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>88.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C13">
-        <v>90.5</v>
+        <v>95.3</v>
       </c>
       <c r="D13">
-        <v>97.2</v>
+        <v>96.2</v>
       </c>
       <c r="E13">
-        <v>100.8</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -693,16 +1041,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>91.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="C14">
-        <v>92.09999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="D14">
-        <v>98.59999999999999</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E14">
-        <v>100.8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -710,16 +1058,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>91.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C15">
-        <v>93.40000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="D15">
-        <v>97.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E15">
-        <v>100.1</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -727,16 +1075,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>93.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C16">
-        <v>94.3</v>
+        <v>95.5</v>
       </c>
       <c r="D16">
-        <v>96.5</v>
+        <v>96.3</v>
       </c>
       <c r="E16">
-        <v>98.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -744,16 +1092,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>95.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C17">
-        <v>95.59999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D17">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
       <c r="E17">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -761,16 +1109,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>98.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C18">
-        <v>97.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D18">
-        <v>96.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E18">
-        <v>97.40000000000001</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -778,16 +1126,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>99.40000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C19">
-        <v>98.2</v>
+        <v>96</v>
       </c>
       <c r="D19">
-        <v>96.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="E19">
-        <v>97.2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -795,16 +1143,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>99.8</v>
+        <v>95.3</v>
       </c>
       <c r="C20">
-        <v>99</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D20">
-        <v>99.2</v>
+        <v>96.3</v>
       </c>
       <c r="E20">
-        <v>99</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -812,16 +1160,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E21">
-        <v>100</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -829,16 +1177,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>100.2</v>
+        <v>96.2</v>
       </c>
       <c r="C22">
-        <v>100.8</v>
+        <v>96.2</v>
       </c>
       <c r="D22">
-        <v>99.90000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E22">
-        <v>100.4</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -846,16 +1194,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>101.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C23">
-        <v>101.9</v>
+        <v>96.5</v>
       </c>
       <c r="D23">
-        <v>100.4</v>
+        <v>96.5</v>
       </c>
       <c r="E23">
-        <v>100.3</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -863,16 +1211,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>103.6</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C24">
-        <v>102.9</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D24">
-        <v>101.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E24">
-        <v>100.4</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -880,16 +1228,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>104.8</v>
+        <v>97</v>
       </c>
       <c r="C25">
-        <v>104</v>
+        <v>96.8</v>
       </c>
       <c r="D25">
-        <v>101.4</v>
+        <v>96</v>
       </c>
       <c r="E25">
-        <v>100.6</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -897,16 +1245,1982 @@
         <v>29</v>
       </c>
       <c r="B26">
+        <v>96.2</v>
+      </c>
+      <c r="C26">
+        <v>95.2</v>
+      </c>
+      <c r="D26">
+        <v>96.2</v>
+      </c>
+      <c r="E26">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>96.7</v>
+      </c>
+      <c r="C27">
+        <v>95.5</v>
+      </c>
+      <c r="D27">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E27">
+        <v>97.40000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="C28">
+        <v>97</v>
+      </c>
+      <c r="D28">
+        <v>96.8</v>
+      </c>
+      <c r="E28">
+        <v>97.59999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="C29">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="D29">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="E29">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>98.2</v>
+      </c>
+      <c r="C30">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="D30">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E30">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>98.2</v>
+      </c>
+      <c r="C31">
+        <v>97.5</v>
+      </c>
+      <c r="D31">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="E31">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="C32">
+        <v>96.7</v>
+      </c>
+      <c r="D32">
+        <v>95.8</v>
+      </c>
+      <c r="E32">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>98</v>
+      </c>
+      <c r="C33">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="D33">
+        <v>96</v>
+      </c>
+      <c r="E33">
+        <v>97.40000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>98.7</v>
+      </c>
+      <c r="C34">
+        <v>97.7</v>
+      </c>
+      <c r="D34">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="E34">
+        <v>97.40000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>99</v>
+      </c>
+      <c r="C35">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="D35">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="E35">
+        <v>97.40000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>98.8</v>
+      </c>
+      <c r="C36">
+        <v>97.8</v>
+      </c>
+      <c r="D36">
+        <v>95.8</v>
+      </c>
+      <c r="E36">
+        <v>97.09999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C37">
+        <v>98.3</v>
+      </c>
+      <c r="D37">
+        <v>95.8</v>
+      </c>
+      <c r="E37">
+        <v>96.90000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="C38">
+        <v>96.5</v>
+      </c>
+      <c r="D38">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="E38">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="C39">
+        <v>96.8</v>
+      </c>
+      <c r="D39">
+        <v>95.7</v>
+      </c>
+      <c r="E39">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C40">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D40">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="E40">
+        <v>96.90000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>99.5</v>
+      </c>
+      <c r="C41">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D41">
+        <v>96.2</v>
+      </c>
+      <c r="E41">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C42">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="D42">
+        <v>96.3</v>
+      </c>
+      <c r="E42">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>99.7</v>
+      </c>
+      <c r="C43">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="D43">
+        <v>96.3</v>
+      </c>
+      <c r="E43">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>99.2</v>
+      </c>
+      <c r="C44">
+        <v>97.8</v>
+      </c>
+      <c r="D44">
+        <v>96.5</v>
+      </c>
+      <c r="E44">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>99.3</v>
+      </c>
+      <c r="C45">
+        <v>98</v>
+      </c>
+      <c r="D45">
+        <v>96.8</v>
+      </c>
+      <c r="E45">
+        <v>97.40000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>99.8</v>
+      </c>
+      <c r="C46">
+        <v>98.7</v>
+      </c>
+      <c r="D46">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E46">
+        <v>97.40000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>99.7</v>
+      </c>
+      <c r="C47">
+        <v>98.7</v>
+      </c>
+      <c r="D47">
+        <v>97.2</v>
+      </c>
+      <c r="E47">
+        <v>97.59999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C48">
+        <v>98.7</v>
+      </c>
+      <c r="D48">
+        <v>97.3</v>
+      </c>
+      <c r="E48">
+        <v>97.59999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>100</v>
+      </c>
+      <c r="C49">
+        <v>99</v>
+      </c>
+      <c r="D49">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="E49">
+        <v>97.59999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>98.8</v>
+      </c>
+      <c r="C50">
+        <v>97.3</v>
+      </c>
+      <c r="D50">
+        <v>97.2</v>
+      </c>
+      <c r="E50">
+        <v>97.09999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C51">
+        <v>97.7</v>
+      </c>
+      <c r="D51">
+        <v>97.2</v>
+      </c>
+      <c r="E51">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>100.1</v>
+      </c>
+      <c r="C52">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="D52">
+        <v>97.5</v>
+      </c>
+      <c r="E52">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>100.2</v>
+      </c>
+      <c r="C53">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D53">
+        <v>99.5</v>
+      </c>
+      <c r="E53">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>100.1</v>
+      </c>
+      <c r="C54">
+        <v>99.3</v>
+      </c>
+      <c r="D54">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E54">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>100.2</v>
+      </c>
+      <c r="C55">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D55">
+        <v>99.8</v>
+      </c>
+      <c r="E55">
+        <v>99.40000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C56">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="D56">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E56">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>99.7</v>
+      </c>
+      <c r="C57">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="D57">
+        <v>100</v>
+      </c>
+      <c r="E57">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>100.1</v>
+      </c>
+      <c r="C58">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D58">
+        <v>100.3</v>
+      </c>
+      <c r="E58">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>100.1</v>
+      </c>
+      <c r="C59">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D59">
+        <v>100</v>
+      </c>
+      <c r="E59">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C60">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D60">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E60">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>99.8</v>
+      </c>
+      <c r="C61">
+        <v>99.7</v>
+      </c>
+      <c r="D61">
+        <v>99.7</v>
+      </c>
+      <c r="E61">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>98.2</v>
+      </c>
+      <c r="C62">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="D62">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E62">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="C63">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D63">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E63">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64">
+        <v>100</v>
+      </c>
+      <c r="C64">
+        <v>99.8</v>
+      </c>
+      <c r="D64">
+        <v>99.7</v>
+      </c>
+      <c r="E64">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <v>100.4</v>
+      </c>
+      <c r="C65">
+        <v>100.3</v>
+      </c>
+      <c r="D65">
+        <v>100.2</v>
+      </c>
+      <c r="E65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66">
+        <v>100.7</v>
+      </c>
+      <c r="C66">
+        <v>100.5</v>
+      </c>
+      <c r="D66">
+        <v>100.4</v>
+      </c>
+      <c r="E66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>100.7</v>
+      </c>
+      <c r="C67">
+        <v>100.6</v>
+      </c>
+      <c r="D67">
+        <v>100.2</v>
+      </c>
+      <c r="E67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68">
+        <v>100.1</v>
+      </c>
+      <c r="C68">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D68">
+        <v>100.1</v>
+      </c>
+      <c r="E68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69">
+        <v>100.1</v>
+      </c>
+      <c r="C69">
+        <v>100.2</v>
+      </c>
+      <c r="D69">
+        <v>100.2</v>
+      </c>
+      <c r="E69">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70">
+        <v>100.3</v>
+      </c>
+      <c r="C70">
+        <v>100.7</v>
+      </c>
+      <c r="D70">
+        <v>100.3</v>
+      </c>
+      <c r="E70">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71">
+        <v>100.5</v>
+      </c>
+      <c r="C71">
+        <v>100.9</v>
+      </c>
+      <c r="D71">
+        <v>100.2</v>
+      </c>
+      <c r="E71">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72">
+        <v>100</v>
+      </c>
+      <c r="C72">
+        <v>100.3</v>
+      </c>
+      <c r="D72">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E72">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73">
+        <v>100</v>
+      </c>
+      <c r="C73">
+        <v>100.6</v>
+      </c>
+      <c r="D73">
+        <v>99.8</v>
+      </c>
+      <c r="E73">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="C74">
+        <v>98.8</v>
+      </c>
+      <c r="D74">
+        <v>99.5</v>
+      </c>
+      <c r="E74">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75">
+        <v>98.7</v>
+      </c>
+      <c r="C75">
+        <v>99.2</v>
+      </c>
+      <c r="D75">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E75">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76">
+        <v>100</v>
+      </c>
+      <c r="C76">
+        <v>100.8</v>
+      </c>
+      <c r="D76">
+        <v>99.7</v>
+      </c>
+      <c r="E76">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <v>100.2</v>
+      </c>
+      <c r="C77">
+        <v>101</v>
+      </c>
+      <c r="D77">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E77">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78">
+        <v>100.6</v>
+      </c>
+      <c r="C78">
+        <v>101.3</v>
+      </c>
+      <c r="D78">
+        <v>100</v>
+      </c>
+      <c r="E78">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79">
+        <v>100.8</v>
+      </c>
+      <c r="C79">
+        <v>101.4</v>
+      </c>
+      <c r="D79">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E79">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80">
+        <v>100.3</v>
+      </c>
+      <c r="C80">
+        <v>100.8</v>
+      </c>
+      <c r="D80">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E80">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81">
+        <v>100.3</v>
+      </c>
+      <c r="C81">
+        <v>101</v>
+      </c>
+      <c r="D81">
+        <v>99.7</v>
+      </c>
+      <c r="E81">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82">
+        <v>100.7</v>
+      </c>
+      <c r="C82">
+        <v>101.5</v>
+      </c>
+      <c r="D82">
+        <v>99.8</v>
+      </c>
+      <c r="E82">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83">
+        <v>101</v>
+      </c>
+      <c r="C83">
+        <v>101.6</v>
+      </c>
+      <c r="D83">
+        <v>100.4</v>
+      </c>
+      <c r="E83">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84">
+        <v>100.6</v>
+      </c>
+      <c r="C84">
+        <v>101</v>
+      </c>
+      <c r="D84">
+        <v>100.4</v>
+      </c>
+      <c r="E84">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85">
+        <v>101.1</v>
+      </c>
+      <c r="C85">
+        <v>101.5</v>
+      </c>
+      <c r="D85">
+        <v>100.1</v>
+      </c>
+      <c r="E85">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86">
+        <v>100.3</v>
+      </c>
+      <c r="C86">
+        <v>99.7</v>
+      </c>
+      <c r="D86">
+        <v>100</v>
+      </c>
+      <c r="E86">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87">
+        <v>100.7</v>
+      </c>
+      <c r="C87">
+        <v>100.1</v>
+      </c>
+      <c r="D87">
+        <v>99.8</v>
+      </c>
+      <c r="E87">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88">
+        <v>101.5</v>
+      </c>
+      <c r="C88">
+        <v>101.5</v>
+      </c>
+      <c r="D88">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E88">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89">
+        <v>102.1</v>
+      </c>
+      <c r="C89">
+        <v>102.3</v>
+      </c>
+      <c r="D89">
+        <v>100.3</v>
+      </c>
+      <c r="E89">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90">
+        <v>102</v>
+      </c>
+      <c r="C90">
+        <v>102.3</v>
+      </c>
+      <c r="D90">
+        <v>100.4</v>
+      </c>
+      <c r="E90">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91">
+        <v>102.1</v>
+      </c>
+      <c r="C91">
+        <v>102.6</v>
+      </c>
+      <c r="D91">
+        <v>100.2</v>
+      </c>
+      <c r="E91">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92">
+        <v>101.6</v>
+      </c>
+      <c r="C92">
+        <v>102</v>
+      </c>
+      <c r="D92">
+        <v>100.1</v>
+      </c>
+      <c r="E92">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93">
+        <v>101.9</v>
+      </c>
+      <c r="C93">
+        <v>102.3</v>
+      </c>
+      <c r="D93">
+        <v>100.3</v>
+      </c>
+      <c r="E93">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94">
+        <v>102.3</v>
+      </c>
+      <c r="C94">
+        <v>102.7</v>
+      </c>
+      <c r="D94">
+        <v>100.5</v>
+      </c>
+      <c r="E94">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95">
+        <v>102.3</v>
+      </c>
+      <c r="C95">
+        <v>102.5</v>
+      </c>
+      <c r="D95">
+        <v>100.6</v>
+      </c>
+      <c r="E95">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96">
+        <v>102.1</v>
+      </c>
+      <c r="C96">
+        <v>102</v>
+      </c>
+      <c r="D96">
+        <v>100.9</v>
+      </c>
+      <c r="E96">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97">
+        <v>102.5</v>
+      </c>
+      <c r="C97">
+        <v>102.4</v>
+      </c>
+      <c r="D97">
+        <v>101.2</v>
+      </c>
+      <c r="E97">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98">
+        <v>101.6</v>
+      </c>
+      <c r="C98">
+        <v>100.7</v>
+      </c>
+      <c r="D98">
+        <v>101.3</v>
+      </c>
+      <c r="E98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99">
+        <v>101.8</v>
+      </c>
+      <c r="C99">
+        <v>101.1</v>
+      </c>
+      <c r="D99">
+        <v>101.3</v>
+      </c>
+      <c r="E99">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100">
+        <v>102.9</v>
+      </c>
+      <c r="C100">
+        <v>102.6</v>
+      </c>
+      <c r="D100">
+        <v>101</v>
+      </c>
+      <c r="E100">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101">
+        <v>103.3</v>
+      </c>
+      <c r="C101">
+        <v>103</v>
+      </c>
+      <c r="D101">
+        <v>100.9</v>
+      </c>
+      <c r="E101">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102">
+        <v>104</v>
+      </c>
+      <c r="C102">
+        <v>103.5</v>
+      </c>
+      <c r="D102">
+        <v>101</v>
+      </c>
+      <c r="E102">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103">
+        <v>104.1</v>
+      </c>
+      <c r="C103">
+        <v>103.6</v>
+      </c>
+      <c r="D103">
+        <v>100.9</v>
+      </c>
+      <c r="E103">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104">
+        <v>103.9</v>
+      </c>
+      <c r="C104">
+        <v>103.2</v>
+      </c>
+      <c r="D104">
+        <v>101</v>
+      </c>
+      <c r="E104">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="C105">
+        <v>103.3</v>
+      </c>
+      <c r="D105">
+        <v>101.6</v>
+      </c>
+      <c r="E105">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106">
+        <v>104.4</v>
+      </c>
+      <c r="C106">
+        <v>103.7</v>
+      </c>
+      <c r="D106">
+        <v>101.7</v>
+      </c>
+      <c r="E106">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107">
+        <v>104.7</v>
+      </c>
+      <c r="C107">
+        <v>103.7</v>
+      </c>
+      <c r="D107">
+        <v>102</v>
+      </c>
+      <c r="E107">
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108">
+        <v>104.1</v>
+      </c>
+      <c r="C108">
+        <v>102.9</v>
+      </c>
+      <c r="D108">
+        <v>101.8</v>
+      </c>
+      <c r="E108">
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109">
+        <v>104.1</v>
+      </c>
+      <c r="C109">
+        <v>103.4</v>
+      </c>
+      <c r="D109">
+        <v>101.5</v>
+      </c>
+      <c r="E109">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110">
+        <v>103</v>
+      </c>
+      <c r="C110">
+        <v>101.8</v>
+      </c>
+      <c r="D110">
+        <v>101.5</v>
+      </c>
+      <c r="E110">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111">
+        <v>103.3</v>
+      </c>
+      <c r="C111">
+        <v>102.1</v>
+      </c>
+      <c r="D111">
+        <v>101.5</v>
+      </c>
+      <c r="E111">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112">
+        <v>104.4</v>
+      </c>
+      <c r="C112">
+        <v>103.4</v>
+      </c>
+      <c r="D112">
+        <v>101.5</v>
+      </c>
+      <c r="E112">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113">
         <v>105.1</v>
       </c>
-      <c r="C26">
+      <c r="C113">
+        <v>104.4</v>
+      </c>
+      <c r="D113">
+        <v>101.8</v>
+      </c>
+      <c r="E113">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114">
+        <v>105.2</v>
+      </c>
+      <c r="C114">
+        <v>104.3</v>
+      </c>
+      <c r="D114">
+        <v>101.8</v>
+      </c>
+      <c r="E114">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115">
+        <v>105.4</v>
+      </c>
+      <c r="C115">
         <v>104.7</v>
       </c>
-      <c r="D26">
+      <c r="D115">
+        <v>101.6</v>
+      </c>
+      <c r="E115">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116">
+        <v>104.9</v>
+      </c>
+      <c r="C116">
+        <v>104.1</v>
+      </c>
+      <c r="D116">
+        <v>101.6</v>
+      </c>
+      <c r="E116">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117">
+        <v>105.1</v>
+      </c>
+      <c r="C117">
+        <v>104.3</v>
+      </c>
+      <c r="D117">
+        <v>101.8</v>
+      </c>
+      <c r="E117">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118">
+        <v>105.3</v>
+      </c>
+      <c r="C118">
+        <v>104.7</v>
+      </c>
+      <c r="D118">
+        <v>101.9</v>
+      </c>
+      <c r="E118">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119">
+        <v>105.4</v>
+      </c>
+      <c r="C119">
+        <v>104.8</v>
+      </c>
+      <c r="D119">
+        <v>100.4</v>
+      </c>
+      <c r="E119">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120">
+        <v>105.1</v>
+      </c>
+      <c r="C120">
+        <v>104.3</v>
+      </c>
+      <c r="D120">
+        <v>100.5</v>
+      </c>
+      <c r="E120">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121">
+        <v>105.4</v>
+      </c>
+      <c r="C121">
+        <v>104.7</v>
+      </c>
+      <c r="D121">
+        <v>100.5</v>
+      </c>
+      <c r="E121">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122">
+        <v>104.4</v>
+      </c>
+      <c r="C122">
+        <v>102.9</v>
+      </c>
+      <c r="D122">
+        <v>100.5</v>
+      </c>
+      <c r="E122">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123">
+        <v>104.6</v>
+      </c>
+      <c r="C123">
+        <v>103.3</v>
+      </c>
+      <c r="D123">
+        <v>100.3</v>
+      </c>
+      <c r="E123">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124">
+        <v>105.1</v>
+      </c>
+      <c r="C124">
+        <v>104.5</v>
+      </c>
+      <c r="D124">
+        <v>100.3</v>
+      </c>
+      <c r="E124">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125">
+        <v>105.4</v>
+      </c>
+      <c r="C125">
+        <v>105.3</v>
+      </c>
+      <c r="D125">
+        <v>100.2</v>
+      </c>
+      <c r="E125">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126">
+        <v>105.3</v>
+      </c>
+      <c r="C126">
+        <v>105.3</v>
+      </c>
+      <c r="D126">
+        <v>100.1</v>
+      </c>
+      <c r="E126">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127">
+        <v>105.7</v>
+      </c>
+      <c r="C127">
+        <v>105.6</v>
+      </c>
+      <c r="D127">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E127">
         <v>100</v>
       </c>
-      <c r="E26">
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128">
+        <v>105.3</v>
+      </c>
+      <c r="C128">
+        <v>105.3</v>
+      </c>
+      <c r="D128">
         <v>100</v>
+      </c>
+      <c r="E128">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129">
+        <v>104.9</v>
+      </c>
+      <c r="C129">
+        <v>104.7</v>
+      </c>
+      <c r="D129">
+        <v>100.1</v>
+      </c>
+      <c r="E129">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130">
+        <v>105</v>
+      </c>
+      <c r="C130">
+        <v>104.9</v>
+      </c>
+      <c r="D130">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E130">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131">
+        <v>105.2</v>
+      </c>
+      <c r="C131">
+        <v>105.1</v>
+      </c>
+      <c r="D131">
+        <v>99.8</v>
+      </c>
+      <c r="E131">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132">
+        <v>104.8</v>
+      </c>
+      <c r="C132">
+        <v>104.5</v>
+      </c>
+      <c r="D132">
+        <v>99.5</v>
+      </c>
+      <c r="E132">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133">
+        <v>105.2</v>
+      </c>
+      <c r="C133">
+        <v>104.9</v>
+      </c>
+      <c r="D133">
+        <v>99.3</v>
+      </c>
+      <c r="E133">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134">
+        <v>105.3</v>
+      </c>
+      <c r="C134">
+        <v>104.4</v>
+      </c>
+      <c r="D134">
+        <v>99.8</v>
+      </c>
+      <c r="E134">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135">
+        <v>105.5</v>
+      </c>
+      <c r="C135">
+        <v>104.5</v>
+      </c>
+      <c r="D135">
+        <v>99.8</v>
+      </c>
+      <c r="E135">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136">
+        <v>106.5</v>
+      </c>
+      <c r="C136">
+        <v>105.5</v>
+      </c>
+      <c r="D136">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E136">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137">
+        <v>107.1</v>
+      </c>
+      <c r="C137">
+        <v>106</v>
+      </c>
+      <c r="D137">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E137">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138">
+        <v>107.4</v>
+      </c>
+      <c r="C138">
+        <v>106.3</v>
+      </c>
+      <c r="D138">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E138">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139">
+        <v>107.7</v>
+      </c>
+      <c r="C139">
+        <v>106.5</v>
+      </c>
+      <c r="D139">
+        <v>99.5</v>
+      </c>
+      <c r="E139">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140">
+        <v>107.6</v>
+      </c>
+      <c r="C140">
+        <v>106.1</v>
+      </c>
+      <c r="D140">
+        <v>99.7</v>
+      </c>
+      <c r="E140">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141">
+        <v>108</v>
+      </c>
+      <c r="C141">
+        <v>106.4</v>
+      </c>
+      <c r="D141">
+        <v>99.7</v>
+      </c>
+      <c r="E141">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142">
+        <v>108.5</v>
+      </c>
+      <c r="C142">
+        <v>106.9</v>
       </c>
     </row>
   </sheetData>
